--- a/biology/Histoire de la zoologie et de la botanique/Édouard_Huet_du_Pavillon/Édouard_Huet_du_Pavillon.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Édouard_Huet_du_Pavillon/Édouard_Huet_du_Pavillon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89douard_Huet_du_Pavillon</t>
+          <t>Édouard_Huet_du_Pavillon</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Édouard Huet du Pavillon est un botaniste français, né le 24 octobre 1819 à Blain et mort le 7 juin 1908 à Genève.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89douard_Huet_du_Pavillon</t>
+          <t>Édouard_Huet_du_Pavillon</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Édouard Huet du Pavillon est le fils d'Edmond Huet du Pavillon, percepteur des contributions directes à Blain, qui sera arrêté pour avoir pris parti pour la duchesse de Berry, et de Mélanie Crouezaud de Launay. Il épouse Mlle de Courten.
 Il a fait ses études en Suisse et a enseigné en Lituanie. Il a fondé une école à Genève avec son frère, également botaniste amateur, Alfred Huet du Pavillon (1829-1907). Il a accompagné ce dernier lors d’expédition en Italie ou seul en Suisse et en France.[pas clair]
